--- a/academycity/data/avic/datasets/excel/conference/output/GDP/1992_Tertiary_o.xlsx
+++ b/academycity/data/avic/datasets/excel/conference/output/GDP/1992_Tertiary_o.xlsx
@@ -2928,7 +2928,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -8320,7 +8320,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -11570,7 +11570,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C142" t="n">
